--- a/Gemini/metrics-scenario-1/metrics_1_report4.xlsx
+++ b/Gemini/metrics-scenario-1/metrics_1_report4.xlsx
@@ -480,25 +480,25 @@
         <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5379746835443038</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.5267175572519084</v>
       </c>
       <c r="G2" t="n">
         <v>0.8734177215189873</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6540284360189573</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
   </sheetData>
